--- a/medicine/Pharmacie/L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï/L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï.xlsx
+++ b/medicine/Pharmacie/L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï/L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Université de médecine et de pharmacie de l'Université nationale du Viêt Nam de Hanoï (vietnamien : Trường Đại học Y Dược, Đại học Quốc gia Hà Nội；anglais : VNU University of medicine and pharmacy) est une université spécialisée en médecine et en pharmacie au Vietnam, membre de Université nationale du Viêt Nam de Hanoï.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 20 mai 2010, Pr Dr Mai Trong Nhuan (ancien directeur de l'VNU-HN) a signé la décision de créer la Faculté des médecine et de pharmacie de Université nationale du Viêt Nam de Hanoï Université nationale du Viêt Nam de Hanoï[2].
-En 2012, la Faculté des médecine et de pharmacie a organisé l'admission pour former deux spécialités : Médecine Générale et Pharmacie[3].
-Le 27 octobre 2020, l'Université de médecine et de pharmacie a été créée par le Premier Ministre sur la base de l'héritage de la Faculté des médecine et de pharmacie, approuvé par le Directeur de l'Université nationale du Viêt Nam de Hanoï[4].
-Le 23 décembre 2022, l'Université de médecine et de pharmacie de Université nationale du Viêt Nam de Hanoï a organisé une cérémonie pour annoncer la décision de créer l'École d'Odonto-Stomatologie[5].
-Le 24 mai 2023, l'Université de médecine et de pharmacie de Université nationale du Viêt Nam de Hanoï a organisé une cérémonie pour annoncer la décision de créer l'École de pharmacie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 mai 2010, Pr Dr Mai Trong Nhuan (ancien directeur de l'VNU-HN) a signé la décision de créer la Faculté des médecine et de pharmacie de Université nationale du Viêt Nam de Hanoï Université nationale du Viêt Nam de Hanoï.
+En 2012, la Faculté des médecine et de pharmacie a organisé l'admission pour former deux spécialités : Médecine Générale et Pharmacie.
+Le 27 octobre 2020, l'Université de médecine et de pharmacie a été créée par le Premier Ministre sur la base de l'héritage de la Faculté des médecine et de pharmacie, approuvé par le Directeur de l'Université nationale du Viêt Nam de Hanoï.
+Le 23 décembre 2022, l'Université de médecine et de pharmacie de Université nationale du Viêt Nam de Hanoï a organisé une cérémonie pour annoncer la décision de créer l'École d'Odonto-Stomatologie.
+Le 24 mai 2023, l'Université de médecine et de pharmacie de Université nationale du Viêt Nam de Hanoï a organisé une cérémonie pour annoncer la décision de créer l'École de pharmacie.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Installation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Xuân Thủy
 Dịch Vọng Hậu, Cầu Giấy, Hà Nội, Việt Nam.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Personnel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Conseil d'administration :
-Directeur : PR. Dr. PD. Le Ngoc Thanh - Ancien directeur du centre cardiovasculaire de l'hôpital Central E ; Ancien directeur de l'hôpital Central E.[7]
+Directeur : PR. Dr. PD. Le Ngoc Thanh - Ancien directeur du centre cardiovasculaire de l'hôpital Central E ; Ancien directeur de l'hôpital Central E.
 Directeur adjoint :
 Pr Dr Nguyen Thanh Hai
 MCF. Dr Dao Xuan Co (simultanément)
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,15 +639,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Premier cycle (06)
-Médecine Générale.
+          <t>Premier cycle (06)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Médecine Générale.
 Odonto-stomatologie.
 Soins infirmiers.
 Pharmacie
 Technique de laboratoire médical.
-Technicien en imagerie médicale.
-Maître (10)
-Pédiatrie.
+Technicien en imagerie médicale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Programmes d'apprentissage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maître (10)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pédiatrie.
 Ophtalmologie.
 Odonto-stomatologie.
 Chirurgie.
@@ -638,9 +695,43 @@
 Médecine interne.(Choisissez 1 des 3 spécialisations : médecine interne, médecine du sport, accident vasculaire cérébral et maladies cérébrovasculaires)
 Gynécologie obstétrique.
 Oncologie.
-Radiologie médicale et Médecine nucléaire.
-Résidence (13)
-Oncologie.
+Radiologie médicale et Médecine nucléaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Programmes d'apprentissage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Résidence (13)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Oncologie.
 Diagnostic Imagine.
 Ophtalmologie.
 Médecine interne.
@@ -651,9 +742,43 @@
 Chirurgie plastique.
 Infectiologie.
 Réanimation.
-Odonto-stomatologie.
-Formation médicale continue
-Des formations de courte durée ont lieu chaque année à l'université telles que :
+Odonto-stomatologie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Université_de_médecine_et_de_pharmacie_de_l'Université_nationale_du_Viêt_Nam_de_Hanoï</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Universit%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27Universit%C3%A9_nationale_du_Vi%C3%AAt_Nam_de_Hano%C3%AF</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Programmes d'apprentissage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Formation médicale continue</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Des formations de courte durée ont lieu chaque année à l'université telles que :
 Base électrocardiographie.
 Général échographie.
 Administration de la santé.
